--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1_Frozen/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1_Frozen/QuerySet1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="612">
   <si>
     <t>Index</t>
   </si>
@@ -1828,6 +1828,33 @@
   </si>
   <si>
     <t>Select SingleSynonym Assign Parent SynonymUnderscore NoResult</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BadStart Select BOOLEAN </t>
+  </si>
+  <si>
+    <t>Select BOOLEAN such that Bag(1,2)</t>
+  </si>
+  <si>
+    <t>Select Boolean Invalid Relation False</t>
+  </si>
+  <si>
+    <t>such that Follows(1, 2) Select BOOLEAN</t>
+  </si>
+  <si>
+    <t>Select Boolean Incorrect ordering of Selection</t>
+  </si>
+  <si>
+    <t>statement s;</t>
+  </si>
+  <si>
+    <t>Select Boolean Invalid Declaration False</t>
+  </si>
+  <si>
+    <t>Select Boolean NoDeclaration InvalidQuery Invalid StartOfQuery False</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1898,6 +1925,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2178,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D273" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,51 +2566,48 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>263</v>
+      <c r="D21" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>65</v>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>66</v>
+      <c r="C23" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,33 +2615,33 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>261</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>603</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>179</v>
+      <c r="B25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,13 +2652,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,13 +2669,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,13 +2703,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,13 +2720,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,13 +2737,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2723,16 +2751,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>13</v>
+        <v>176</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2743,13 +2771,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,13 +2788,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,16 +2819,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2</v>
+        <v>198</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,13 +2839,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="6">
-        <v>8</v>
+        <v>196</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,13 +2856,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>13</v>
+        <v>187</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,13 +2873,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,13 +2890,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,13 +2907,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="D41" s="6">
+        <v>8</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,16 +2921,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,13 +2941,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,13 +2958,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,13 +2975,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="6">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,16 +2989,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2978,16 +3006,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2995,16 +3023,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,13 +3043,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3029,16 +3057,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,16 +3074,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3063,16 +3091,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,16 +3108,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,16 +3125,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,13 +3145,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3134,13 +3162,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3148,16 +3176,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,13 +3196,13 @@
         <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3182,16 +3210,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,16 +3227,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3216,16 +3244,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3236,13 +3264,13 @@
         <v>137</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3253,13 +3281,13 @@
         <v>137</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,16 +3295,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,16 +3312,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,16 +3329,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3318,16 +3346,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,13 +3366,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="6">
-        <v>8</v>
+        <v>121</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,13 +3383,13 @@
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,13 +3400,13 @@
         <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,13 +3417,13 @@
         <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>14</v>
+        <v>124</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,13 +3434,13 @@
         <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="D72" s="6">
+        <v>8</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,13 +3451,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="6">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,13 +3468,13 @@
         <v>6</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,13 +3485,13 @@
         <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,13 +3502,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,16 +3516,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3505,16 +3533,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,13 +3553,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3539,16 +3567,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="6">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3556,16 +3584,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,16 +3601,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="6">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,16 +3618,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="6">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,13 +3638,13 @@
         <v>7</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>34</v>
+        <v>107</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,13 +3655,13 @@
         <v>7</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="6">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3644,13 +3672,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>34</v>
+        <v>109</v>
+      </c>
+      <c r="D86" s="6">
+        <v>3</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,13 +3689,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D87" s="6">
         <v>3</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,13 +3706,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D88" s="6">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,13 +3723,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D89" s="6">
         <v>3</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3712,13 +3740,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,13 +3757,13 @@
         <v>7</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D91" s="6">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,16 +3771,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>34</v>
+        <v>114</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3760,16 +3788,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>34</v>
+        <v>116</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,13 +3808,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,16 +3822,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>13</v>
+        <v>117</v>
+      </c>
+      <c r="D95" s="6">
+        <v>3</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,16 +3839,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3828,16 +3856,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3845,16 +3873,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,13 +3893,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,13 +3910,13 @@
         <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,13 +3927,13 @@
         <v>5</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,13 +3944,13 @@
         <v>5</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,16 +3958,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,16 +3975,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D104" s="6">
-        <v>2</v>
+        <v>209</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3964,16 +3992,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="6">
-        <v>3</v>
+        <v>213</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,13 +4012,13 @@
         <v>5</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,16 +4026,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4015,16 +4043,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>13</v>
+        <v>219</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,16 +4060,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>35</v>
+        <v>220</v>
+      </c>
+      <c r="D109" s="6">
+        <v>3</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4049,16 +4077,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4066,16 +4094,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,16 +4111,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,13 +4131,13 @@
         <v>5</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4117,16 +4145,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D114" s="6">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4137,13 +4165,13 @@
         <v>27</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2</v>
+        <v>230</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,13 +4182,13 @@
         <v>27</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,16 +4196,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,16 +4213,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>258</v>
+        <v>239</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4202,16 +4230,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>259</v>
+        <v>240</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,16 +4247,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4236,16 +4264,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4256,13 +4284,13 @@
         <v>216</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,16 +4298,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>438</v>
+        <v>250</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4287,16 +4315,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4304,16 +4332,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,16 +4349,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>445</v>
+        <v>36</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4341,13 +4369,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D127" s="6">
-        <v>8</v>
+        <v>438</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,13 +4386,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>274</v>
+        <v>440</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>281</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,13 +4403,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4392,13 +4420,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>13</v>
+        <v>445</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4409,13 +4437,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>35</v>
+        <v>273</v>
+      </c>
+      <c r="D131" s="6">
+        <v>8</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,13 +4454,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D132" s="6">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>365</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4443,13 +4471,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>366</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4460,13 +4488,13 @@
         <v>5</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>367</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4477,13 +4505,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4491,16 +4519,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>36</v>
+        <v>285</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,16 +4536,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4528,13 +4556,13 @@
         <v>5</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4542,16 +4570,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,16 +4587,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>442</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4576,16 +4604,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,16 +4621,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,16 +4638,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,13 +4658,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4647,13 +4675,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4661,16 +4689,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,13 +4709,13 @@
         <v>137</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4695,16 +4723,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,16 +4740,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4729,16 +4757,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4749,13 +4777,13 @@
         <v>137</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4766,13 +4794,13 @@
         <v>137</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4780,16 +4808,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,16 +4825,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4814,16 +4842,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4831,16 +4859,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,13 +4879,13 @@
         <v>6</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D157" s="6">
-        <v>8</v>
+        <v>306</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4868,13 +4896,13 @@
         <v>6</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4885,13 +4913,13 @@
         <v>6</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4902,13 +4930,13 @@
         <v>6</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>14</v>
+        <v>447</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4919,13 +4947,13 @@
         <v>6</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>138</v>
+        <v>310</v>
+      </c>
+      <c r="D161" s="6">
+        <v>8</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4936,13 +4964,13 @@
         <v>6</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D162" s="6">
-        <v>1</v>
+        <v>311</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,13 +4981,13 @@
         <v>6</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4970,13 +4998,13 @@
         <v>6</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>448</v>
+        <v>14</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4987,13 +5015,13 @@
         <v>6</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5001,16 +5029,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>140</v>
+        <v>315</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5018,16 +5046,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5038,13 +5066,13 @@
         <v>6</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5052,16 +5080,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D169" s="6">
-        <v>3</v>
+        <v>318</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5069,16 +5097,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,16 +5114,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D171" s="6">
-        <v>3</v>
+        <v>320</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,16 +5131,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D172" s="6">
-        <v>3</v>
+        <v>321</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5123,13 +5151,13 @@
         <v>7</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>34</v>
+        <v>322</v>
+      </c>
+      <c r="D173" s="6">
+        <v>3</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5140,13 +5168,13 @@
         <v>7</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D174" s="6">
-        <v>3</v>
+        <v>323</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5157,13 +5185,13 @@
         <v>7</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>34</v>
+        <v>324</v>
+      </c>
+      <c r="D175" s="6">
+        <v>3</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,13 +5202,13 @@
         <v>7</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D176" s="6">
         <v>3</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5191,13 +5219,13 @@
         <v>7</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D177" s="6">
-        <v>3</v>
+        <v>326</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5208,13 +5236,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D178" s="6">
         <v>3</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5225,13 +5253,13 @@
         <v>7</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5242,13 +5270,13 @@
         <v>7</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D180" s="6">
         <v>3</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5256,16 +5284,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>34</v>
+        <v>330</v>
+      </c>
+      <c r="D181" s="6">
+        <v>3</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5273,16 +5301,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>34</v>
+        <v>331</v>
+      </c>
+      <c r="D182" s="6">
+        <v>3</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5293,13 +5321,13 @@
         <v>7</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5307,16 +5335,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>13</v>
+        <v>333</v>
+      </c>
+      <c r="D184" s="6">
+        <v>3</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5324,16 +5352,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5341,16 +5369,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,16 +5386,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,13 +5406,13 @@
         <v>5</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>206</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5395,13 +5423,13 @@
         <v>5</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5412,13 +5440,13 @@
         <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>416</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5429,13 +5457,13 @@
         <v>5</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,16 +5471,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>418</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5460,16 +5488,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>445</v>
+        <v>34</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>419</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5477,16 +5505,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,13 +5525,13 @@
         <v>5</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5511,16 +5539,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5528,16 +5556,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>13</v>
+        <v>445</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5545,16 +5573,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5562,16 +5590,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5579,16 +5607,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5596,16 +5624,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,13 +5644,13 @@
         <v>5</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D202" s="6">
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5630,16 +5658,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D203" s="6">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,13 +5678,13 @@
         <v>27</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>448</v>
+        <v>35</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,13 +5695,13 @@
         <v>27</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5681,16 +5709,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>36</v>
+        <v>355</v>
+      </c>
+      <c r="D206" s="6">
+        <v>1</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5698,16 +5726,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>258</v>
+        <v>356</v>
+      </c>
+      <c r="D207" s="6">
+        <v>1</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5715,16 +5743,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>259</v>
+        <v>448</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5732,16 +5760,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,16 +5777,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,13 +5797,13 @@
         <v>216</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5783,16 +5811,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5800,16 +5828,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5817,16 +5845,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5834,16 +5862,16 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,13 +5882,13 @@
         <v>5</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,13 +5899,13 @@
         <v>5</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5888,13 +5916,13 @@
         <v>5</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,13 +5933,13 @@
         <v>5</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>600</v>
+        <v>458</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,13 +5950,13 @@
         <v>5</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D220" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D220" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>170</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,13 +5967,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D221" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D221" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>169</v>
+        <v>462</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5953,16 +5981,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>468</v>
+        <v>5</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,13 +6001,13 @@
         <v>5</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>34</v>
+        <v>465</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>211</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,13 +6018,13 @@
         <v>5</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,13 +6035,13 @@
         <v>5</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>474</v>
+        <v>169</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6021,16 +6049,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>5</v>
+        <v>468</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6041,13 +6069,13 @@
         <v>5</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D227" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>478</v>
+        <v>211</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,13 +6086,13 @@
         <v>5</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>601</v>
+        <v>472</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>480</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6075,13 +6103,13 @@
         <v>5</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>13</v>
+        <v>473</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6092,13 +6120,13 @@
         <v>5</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,13 +6137,13 @@
         <v>5</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6126,13 +6154,13 @@
         <v>5</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>601</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6140,16 +6168,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6160,13 +6188,13 @@
         <v>5</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D234" s="8">
-        <v>3</v>
+        <v>483</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6177,13 +6205,13 @@
         <v>5</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6194,13 +6222,13 @@
         <v>5</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D236" s="8">
-        <v>3</v>
+        <v>487</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>601</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6208,16 +6236,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>27</v>
+        <v>489</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D237" s="8">
-        <v>3</v>
+        <v>490</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6225,16 +6253,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>601</v>
+        <v>492</v>
+      </c>
+      <c r="D238" s="8">
+        <v>3</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6245,13 +6273,13 @@
         <v>5</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6259,16 +6287,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>15</v>
+        <v>496</v>
+      </c>
+      <c r="D240" s="8">
+        <v>3</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6276,16 +6304,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>34</v>
+        <v>498</v>
+      </c>
+      <c r="D241" s="8">
+        <v>3</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6293,16 +6321,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>15</v>
+        <v>601</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6310,16 +6338,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6330,13 +6358,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6347,13 +6375,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,13 +6392,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,13 +6409,13 @@
         <v>137</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,16 +6423,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6412,16 +6440,16 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,16 +6457,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6449,13 +6477,13 @@
         <v>137</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6463,16 +6491,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6480,16 +6508,16 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6497,16 +6525,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6514,16 +6542,16 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6531,16 +6559,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6551,13 +6579,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>34</v>
+        <v>601</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6565,16 +6593,16 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6582,16 +6610,16 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D259" s="8">
-        <v>3</v>
+        <v>534</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6599,16 +6627,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6616,16 +6644,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6636,13 +6664,13 @@
         <v>7</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D262" s="8">
-        <v>3</v>
+        <v>539</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6653,13 +6681,13 @@
         <v>7</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>34</v>
+        <v>540</v>
+      </c>
+      <c r="D263" s="8">
+        <v>3</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6670,13 +6698,13 @@
         <v>7</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D264" s="8">
-        <v>3</v>
+        <v>542</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6684,16 +6712,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6704,13 +6732,13 @@
         <v>7</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>34</v>
+        <v>546</v>
+      </c>
+      <c r="D266" s="8">
+        <v>3</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6718,16 +6746,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6735,16 +6763,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>13</v>
+        <v>550</v>
+      </c>
+      <c r="D268" s="8">
+        <v>3</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>174</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6752,16 +6780,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6769,16 +6797,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6789,13 +6817,13 @@
         <v>5</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>206</v>
+        <v>557</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6806,13 +6834,13 @@
         <v>5</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6823,13 +6851,13 @@
         <v>5</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>565</v>
+        <v>208</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6840,13 +6868,13 @@
         <v>5</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6854,16 +6882,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>569</v>
+        <v>206</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,16 +6899,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>571</v>
+        <v>210</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6891,13 +6919,13 @@
         <v>5</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6908,13 +6936,13 @@
         <v>5</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6922,16 +6950,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6939,16 +6967,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>601</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6956,16 +6984,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6973,16 +7001,16 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6993,13 +7021,13 @@
         <v>5</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D283" s="8">
-        <v>3</v>
+        <v>576</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7007,16 +7035,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D284" s="8">
-        <v>3</v>
+        <v>578</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>601</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,16 +7052,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D285" s="8">
-        <v>3</v>
+        <v>580</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7041,16 +7069,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>34</v>
+        <v>601</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7058,16 +7086,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>34</v>
+        <v>584</v>
+      </c>
+      <c r="D287" s="8">
+        <v>3</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7075,16 +7103,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>34</v>
+        <v>586</v>
+      </c>
+      <c r="D288" s="8">
+        <v>3</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7092,16 +7120,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D289" s="8">
         <v>3</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7112,12 +7140,80 @@
         <v>216</v>
       </c>
       <c r="C290" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="5">
+        <v>290</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="5">
+        <v>292</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D293" s="8">
+        <v>3</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D290" s="8">
+      <c r="D294" s="8">
         <v>3</v>
       </c>
-      <c r="E290" s="4" t="s">
+      <c r="E294" s="4" t="s">
         <v>599</v>
       </c>
     </row>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1_Frozen/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1_Frozen/QuerySet1.xlsx
@@ -1416,9 +1416,6 @@
     <t>Parent Excessive Arguments NoResult</t>
   </si>
   <si>
-    <t xml:space="preserve"> Select s such that Parent ( 1 , 2 )</t>
-  </si>
-  <si>
     <t>Select s suchthat Parent(1, 2)</t>
   </si>
   <si>
@@ -1428,9 +1425,6 @@
     <t>stmt Parent;</t>
   </si>
   <si>
-    <t>Select Parent such that Parent(1, 2)</t>
-  </si>
-  <si>
     <t>Select SingleSynonym Stmt Parent IntInt ParentKeywordAsSynonym HaveResult</t>
   </si>
   <si>
@@ -1488,12 +1482,6 @@
     <t>Select SingleSynonym Stmt Parent UnderscoreSynonym HaveResult</t>
   </si>
   <si>
-    <t>stmt s, Parent;</t>
-  </si>
-  <si>
-    <t>Select s such that Parent(Parent, 5)</t>
-  </si>
-  <si>
     <t>Select SingleSynonym Stmt Parent SynonymInt ParentKeywordAsSynontm As RelationArg HaveResult</t>
   </si>
   <si>
@@ -1650,9 +1638,6 @@
     <t>Select w such that Parent(1, _)</t>
   </si>
   <si>
-    <t>Select SingleSynonym While Parent IntUnderscore HaveResult</t>
-  </si>
-  <si>
     <t>Select w such that Parent(_, w)</t>
   </si>
   <si>
@@ -1725,9 +1710,6 @@
     <t>Select SingleSynonym Stmt Parent IntSynonym And Parent IntSynonym BothRelationSameSynonym NoResult</t>
   </si>
   <si>
-    <t>Select s1 such that Parent(1, s2) and Parent(2, s3)</t>
-  </si>
-  <si>
     <t>Select SingleSynonym Stmt Parent IntSynonym And Parent IntSynonym BothRelationDiffSynonym HaveResult</t>
   </si>
   <si>
@@ -1794,21 +1776,12 @@
     <t>Select s1 such that Parent(s1, s2) and Parent(s2, s3)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetFirst HaveResult</t>
-  </si>
-  <si>
     <t>Select s2 such that Parent(s1, s2) and Parent(s2, s3)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetMiddle HaveResult</t>
-  </si>
-  <si>
     <t>Select s3 such that Parent(s1, s2) and Parent(s2, s3)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetLast HaveResult</t>
-  </si>
-  <si>
     <t>Select s1 such that Parent(s1, s3) and Parent(s2, s3)</t>
   </si>
   <si>
@@ -1855,6 +1828,33 @@
   </si>
   <si>
     <t>Select Boolean NoDeclaration InvalidQuery Invalid StartOfQuery False</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select s such that Parent ( 3 , 4 )</t>
+  </si>
+  <si>
+    <t>Select Parent such that Parent(3, 4)</t>
+  </si>
+  <si>
+    <t>Select Parent such that Parent(Parent, 5)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent IntUnderscore NoResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(3, s2) and Parent(3, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetFirst NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetMiddle NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetLast NoResult</t>
   </si>
 </sst>
 </file>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,16 +2567,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,13 +2587,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,13 +2601,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>261</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>263</v>
@@ -2635,13 +2635,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -6000,14 +6000,14 @@
       <c r="B223" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>465</v>
+      <c r="C223" s="10" t="s">
+        <v>603</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6018,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>34</v>
@@ -6035,7 +6035,7 @@
         <v>5</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>34</v>
@@ -6049,16 +6049,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>604</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6069,7 +6069,7 @@
         <v>5</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>34</v>
@@ -6086,7 +6086,7 @@
         <v>5</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>34</v>
@@ -6103,13 +6103,13 @@
         <v>5</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D229" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6120,13 +6120,13 @@
         <v>5</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6137,13 +6137,13 @@
         <v>5</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6154,13 +6154,13 @@
         <v>5</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,13 +6171,13 @@
         <v>5</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6188,13 +6188,13 @@
         <v>5</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6205,13 +6205,13 @@
         <v>5</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6222,30 +6222,30 @@
         <v>5</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>236</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>34</v>
+      <c r="B237" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>606</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,13 +6256,13 @@
         <v>5</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D238" s="8">
         <v>3</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6273,13 +6273,13 @@
         <v>5</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6290,13 +6290,13 @@
         <v>5</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D240" s="8">
         <v>3</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6307,13 +6307,13 @@
         <v>27</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D241" s="8">
         <v>3</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6324,13 +6324,13 @@
         <v>27</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6341,13 +6341,13 @@
         <v>5</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6358,13 +6358,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6375,13 +6375,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6392,13 +6392,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,13 +6409,13 @@
         <v>137</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,13 +6426,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6443,13 +6443,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6460,13 +6460,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6477,13 +6477,13 @@
         <v>137</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6494,13 +6494,13 @@
         <v>137</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6511,13 +6511,13 @@
         <v>137</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6528,13 +6528,13 @@
         <v>137</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6545,13 +6545,13 @@
         <v>137</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6562,13 +6562,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6579,13 +6579,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6596,13 +6596,13 @@
         <v>6</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6613,13 +6613,13 @@
         <v>6</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6630,13 +6630,13 @@
         <v>105</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6647,13 +6647,13 @@
         <v>6</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,13 +6664,13 @@
         <v>7</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,13 +6681,13 @@
         <v>7</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D263" s="8">
         <v>3</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6698,13 +6698,13 @@
         <v>7</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E264" s="4" t="s">
-        <v>543</v>
+      <c r="E264" s="10" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6715,13 +6715,13 @@
         <v>7</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6732,13 +6732,13 @@
         <v>7</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D266" s="8">
         <v>3</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,13 +6749,13 @@
         <v>7</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6766,13 +6766,13 @@
         <v>7</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D268" s="8">
         <v>3</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6783,13 +6783,13 @@
         <v>106</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6800,13 +6800,13 @@
         <v>7</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6817,13 +6817,13 @@
         <v>5</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6834,7 +6834,7 @@
         <v>5</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>13</v>
@@ -6851,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>34</v>
@@ -6868,13 +6868,13 @@
         <v>5</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
         <v>5</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>13</v>
@@ -6902,7 +6902,7 @@
         <v>5</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>34</v>
@@ -6919,13 +6919,13 @@
         <v>5</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6936,13 +6936,13 @@
         <v>5</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6952,14 +6952,14 @@
       <c r="B279" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>34</v>
+      <c r="C279" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6970,13 +6970,13 @@
         <v>27</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6987,13 +6987,13 @@
         <v>5</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -7004,13 +7004,13 @@
         <v>5</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -7021,13 +7021,13 @@
         <v>5</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7038,13 +7038,13 @@
         <v>5</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -7055,13 +7055,13 @@
         <v>216</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -7072,13 +7072,13 @@
         <v>27</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -7089,13 +7089,13 @@
         <v>5</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D287" s="8">
         <v>3</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -7106,13 +7106,13 @@
         <v>27</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D288" s="8">
         <v>3</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,13 +7123,13 @@
         <v>27</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D289" s="8">
         <v>3</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -7140,13 +7140,13 @@
         <v>216</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E290" s="4" t="s">
-        <v>591</v>
+      <c r="E290" s="10" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -7157,13 +7157,13 @@
         <v>216</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E291" s="4" t="s">
-        <v>593</v>
+      <c r="E291" s="10" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -7174,13 +7174,13 @@
         <v>216</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E292" s="4" t="s">
-        <v>595</v>
+      <c r="E292" s="10" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -7191,13 +7191,13 @@
         <v>216</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D293" s="8">
         <v>3</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -7208,13 +7208,13 @@
         <v>216</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D294" s="8">
         <v>3</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
